--- a/specifications/afs/Business intelligence systems - System Development - BI Project - Finance Systems - AFS Data Specification V4.35.xlsx
+++ b/specifications/afs/Business intelligence systems - System Development - BI Project - Finance Systems - AFS Data Specification V4.35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ShrForms\specifications\afs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879A0737-AD9A-4B0B-9EEC-A0F70CF389EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59BB02F-3892-43EE-9CF7-80C5DA76EA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="2365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4110" uniqueCount="2365">
   <si>
     <t>Revision History</t>
   </si>
@@ -7307,34 +7307,64 @@
     <t>Amend to allow comments into PDF</t>
   </si>
   <si>
+    <t>Add introduction</t>
+  </si>
+  <si>
+    <t>soci</t>
+  </si>
+  <si>
+    <t>Validation Formula</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Currency(9,1)</t>
+  </si>
+  <si>
+    <t>soce</t>
+  </si>
+  <si>
+    <t>sofp</t>
+  </si>
+  <si>
+    <t>socf</t>
+  </si>
+  <si>
+    <t>Welcome to the Landlord Portal for the Audited Financial Statement return (AFS).
+AFS is an online system designed to collate selected information from the audited annual financial statements of RSLs in Scotland.  This information must be submitted by the 30th September each year.
+For 2020, the submission date has been extended to 31 December 2020 to accommodate the delays arising from COVID-19 in respect of completing audits.
+Please make sure that the return is approved by governing body and is signed off the relevant senior officer in your organisation.
+We will analyse the submissions and publish the data as part of the annual aggregated sector statistics.  The data will also be available in CSV format to allow users to analyse the data in their own way.</t>
+  </si>
+  <si>
+    <t>The Validation Summary identifies any fields where you need to take further action e.g. because some information is missing or certain fields do not add up to match a field elsewhere in the form.
+The form includes real-time validation to help you enter the data correctly e.g. to check data is entered in £’000 as opposed to £.
+New validation for this year is comparing the data entered with the prior year values to highlight material movements.  The validation is cleared by entering a comment to briefly explain the variance.  This will significantly reduce the number of RSLs we have to contact post submission to understand what such movements represent.</t>
+  </si>
+  <si>
+    <t>Button|Action
+--------|--------
+Previous|This button will take you to the previous available page and save all content on the current page 
+Next|This button will take you to the next available page and save all content on the current page
+Save|This button will save all content within the form and allow further editing
+PDF|This button will download a pdf document of the charter return form
+Close|This button will take you to a Close screen</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>About the online AFS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-The online AFS has eleven sections:
-1. SOCI – Statement of Comprehensive Income
-2. SOFP – Statement of Financial Positive
-3. SOCE – Statement of Comprehensive Income
-4. SOCF – Statement of Cash Flows
-5. Analysis – Affordable Lettings
-6. Analysis – Other Activities
-7. Analysis – Units
-8. Supplementary Items
-9. Contextual Information
-10. Validation Summary
-11. Approval
+      <t xml:space="preserve">The online AFS has eleven sections:
+* SOCI – Statement of Comprehensive Income
+* SOFP – Statement of Financial Positive
+* SOCE – Statement of Comprehensive Income
+* SOCF – Statement of Cash Flows
+* Analysis – Affordable Lettings
+* Analysis – Other Activities
+* Analysis – Units
+* Supplementary Items
+* Contextual Information
+* Validation Summary
+* Approval
 Each section is accessed via the menu on the left hand side of the screen.  Once in a section, you will be able to use the navigation buttons on the input screens to move between screens.
 Data has to be entered in a particular way e.g. revenues, surpluses, assets and cash inflows must be input as positive values, whilst expenditure, losses, liabilities and cash outflows must be input as negative values.  More information is available in the AFS User Guide which can be found </t>
     </r>
@@ -7355,175 +7385,9 @@
       </rPr>
       <t>.
 Every data entry field requires a value.  Blank fields are not permitted and will produce a validation error.
-There are a number of drop-down lists used for some of the data fields e.g. auditors, pension schemes etc.  If the option you need is not listed, please contact us at  shr@shr.gov.scot for assistance.
+There are a number of drop-down lists used for some of the data fields e.g. auditors, pension schemes etc.  If the option you need is not listed, please contact us at [shr@shr.gov.scot](mailto:shr@shr.gov.scot) for assistance.
 You will be able to generate a PDF version of the AFS form.  This will include all the data entered as well as cost per unit and ratio calculations.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Buttons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Button Action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Previous This button will take you to the previous available page and save all content on the current page
-Next This button will take you to the next available page and save all content on the current page
-Save This button will save all content within the form and allow further editing
-PDF This button will download a pdf document of the charter return form
-Close This button will take you to a Close screen</t>
-    </r>
-  </si>
-  <si>
-    <t>Add introduction</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Introduction
-• Welcome to the portal for the Audited Financial Statements (AFS) return Introduction
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Welcome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Welcome to the Landlord Portal for the Audited Financial Statement return (AFS).
-AFS is an online system designed to collate selected information from the audited annual financial statements of RSLs in Scotland.  This information </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>must</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> be submitted by the 30th September each year.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>For 2020, the submission date has been extended to 31 December 2020 to accommodate the delays arising from COVID-19 in respect of completing audits.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Please make sure that the return is approved by governing body and is signed off the relevant senior officer in your organisation.
-We will analyse the submissions and publish the data as part of the annual aggregated sector statistics.  The data will also be available in CSV format to allow users to analyse the data in their own way.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Validation Summary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-The Validation Summary identifies any fields where you need to take further action e.g. because some information is missing or certain fields do not add up to match a field elsewhere in the form.
-The form includes real-time validation to help you enter the data correctly e.g. to check data is entered in £’000 as opposed to £.
-New validation for this year is comparing the data entered with the prior year values to highlight material movements.  The validation is cleared by entering a comment to briefly explain the variance.  This will significantly reduce the number of RSLs we have to contact post submission to understand what such movements represent.</t>
-    </r>
-  </si>
-  <si>
-    <t>soci</t>
-  </si>
-  <si>
-    <t>Validation Formula</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>Currency(9,1)</t>
-  </si>
-  <si>
-    <t>soce</t>
-  </si>
-  <si>
-    <t>sofp</t>
-  </si>
-  <si>
-    <t>socf</t>
   </si>
 </sst>
 </file>
@@ -10838,7 +10702,7 @@
         <v>1120</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -13755,7 +13619,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14057,6 +13921,9 @@
       <c r="E2" s="224" t="s">
         <v>1476</v>
       </c>
+      <c r="F2" s="219" t="s">
+        <v>1837</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="221" t="s">
@@ -14066,7 +13933,7 @@
       <c r="C3" s="221"/>
       <c r="D3" s="221"/>
       <c r="E3" s="219" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="F3" s="219" t="s">
         <v>1845</v>
@@ -14080,7 +13947,7 @@
       <c r="C4" s="221"/>
       <c r="D4" s="222"/>
       <c r="E4" s="219" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="F4" s="219" t="s">
         <v>1846</v>
@@ -14094,7 +13961,7 @@
       <c r="C5" s="221"/>
       <c r="D5" s="222"/>
       <c r="E5" s="219" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="F5" s="219" t="s">
         <v>1847</v>
@@ -14107,7 +13974,7 @@
       <c r="B6" s="222"/>
       <c r="D6" s="221"/>
       <c r="E6" s="219" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="F6" s="219" t="s">
         <v>1853</v>
@@ -14238,11 +14105,11 @@
   <dimension ref="A1:AG627"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B216" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B619" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B6" sqref="B6"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D189" sqref="D189:D200"/>
+      <selection pane="bottomRight" activeCell="H619" sqref="H619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -14587,7 +14454,7 @@
         <v>1283</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="O8" s="36" t="s">
         <v>1284</v>
@@ -14693,7 +14560,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E10" s="168"/>
       <c r="F10" s="168"/>
@@ -14751,7 +14618,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E11" s="168"/>
       <c r="F11" s="168"/>
@@ -14807,7 +14674,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E12" s="170"/>
       <c r="F12" s="168"/>
@@ -14858,7 +14725,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E13" s="170"/>
       <c r="F13" s="168"/>
@@ -14909,7 +14776,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E14" s="143"/>
       <c r="F14" s="143"/>
@@ -14957,7 +14824,7 @@
         <v>56</v>
       </c>
       <c r="D15" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E15" s="170"/>
       <c r="F15" s="168"/>
@@ -15008,7 +14875,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E16" s="170"/>
       <c r="F16" s="168"/>
@@ -15064,7 +14931,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E17" s="170"/>
       <c r="F17" s="168"/>
@@ -15118,7 +14985,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E18" s="170"/>
       <c r="F18" s="168"/>
@@ -15169,7 +15036,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E19" s="170"/>
       <c r="F19" s="168"/>
@@ -15223,7 +15090,7 @@
         <v>42</v>
       </c>
       <c r="D20" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E20" s="170"/>
       <c r="F20" s="168"/>
@@ -15274,7 +15141,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E21" s="170"/>
       <c r="F21" s="168"/>
@@ -15330,7 +15197,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E22" s="170"/>
       <c r="F22" s="168"/>
@@ -15386,7 +15253,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E23" s="143"/>
       <c r="F23" s="143"/>
@@ -15434,7 +15301,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E24" s="181"/>
       <c r="F24" s="181"/>
@@ -15482,7 +15349,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E25" s="170"/>
       <c r="F25" s="168"/>
@@ -15531,7 +15398,7 @@
         <v>46</v>
       </c>
       <c r="D26" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E26" s="181"/>
       <c r="F26" s="181"/>
@@ -15579,7 +15446,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E27" s="170"/>
       <c r="F27" s="168"/>
@@ -15628,7 +15495,7 @@
         <v>50</v>
       </c>
       <c r="D28" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E28" s="170"/>
       <c r="F28" s="168"/>
@@ -15679,7 +15546,7 @@
         <v>51</v>
       </c>
       <c r="D29" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E29" s="181"/>
       <c r="F29" s="181"/>
@@ -16439,7 +16306,7 @@
         <v>65</v>
       </c>
       <c r="D46" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E46" s="158"/>
       <c r="F46" s="158"/>
@@ -16493,7 +16360,7 @@
         <v>66</v>
       </c>
       <c r="D47" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E47" s="158"/>
       <c r="F47" s="158"/>
@@ -16547,7 +16414,7 @@
         <v>67</v>
       </c>
       <c r="D48" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E48" s="158"/>
       <c r="F48" s="158"/>
@@ -16601,7 +16468,7 @@
         <v>68</v>
       </c>
       <c r="D49" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E49" s="158"/>
       <c r="F49" s="158"/>
@@ -16650,7 +16517,7 @@
         <v>69</v>
       </c>
       <c r="D50" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E50" s="158"/>
       <c r="F50" s="158"/>
@@ -16699,7 +16566,7 @@
         <v>70</v>
       </c>
       <c r="D51" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E51" s="158"/>
       <c r="F51" s="158"/>
@@ -16748,7 +16615,7 @@
         <v>71</v>
       </c>
       <c r="D52" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E52" s="176"/>
       <c r="F52" s="176"/>
@@ -16798,7 +16665,7 @@
         <v>1183</v>
       </c>
       <c r="D53" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E53" s="158"/>
       <c r="F53" s="158"/>
@@ -16852,7 +16719,7 @@
         <v>1186</v>
       </c>
       <c r="D54" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E54" s="158"/>
       <c r="F54" s="158"/>
@@ -16906,7 +16773,7 @@
         <v>1189</v>
       </c>
       <c r="D55" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E55" s="158"/>
       <c r="F55" s="158"/>
@@ -16960,7 +16827,7 @@
         <v>1192</v>
       </c>
       <c r="D56" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E56" s="158"/>
       <c r="F56" s="158"/>
@@ -17009,7 +16876,7 @@
         <v>1194</v>
       </c>
       <c r="D57" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E57" s="158"/>
       <c r="F57" s="158"/>
@@ -17058,7 +16925,7 @@
         <v>1251</v>
       </c>
       <c r="D58" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E58" s="158"/>
       <c r="F58" s="158"/>
@@ -17107,7 +16974,7 @@
         <v>1197</v>
       </c>
       <c r="D59" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E59" s="176"/>
       <c r="F59" s="176"/>
@@ -17155,7 +17022,7 @@
         <v>1206</v>
       </c>
       <c r="D60" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E60" s="158"/>
       <c r="F60" s="158"/>
@@ -17209,7 +17076,7 @@
         <v>1208</v>
       </c>
       <c r="D61" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E61" s="158"/>
       <c r="F61" s="158"/>
@@ -17263,7 +17130,7 @@
         <v>1210</v>
       </c>
       <c r="D62" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E62" s="158"/>
       <c r="F62" s="158"/>
@@ -17317,7 +17184,7 @@
         <v>1212</v>
       </c>
       <c r="D63" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E63" s="158"/>
       <c r="F63" s="158"/>
@@ -17366,7 +17233,7 @@
         <v>1213</v>
       </c>
       <c r="D64" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E64" s="158"/>
       <c r="F64" s="158"/>
@@ -17415,7 +17282,7 @@
         <v>1252</v>
       </c>
       <c r="D65" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E65" s="158"/>
       <c r="F65" s="158"/>
@@ -17464,7 +17331,7 @@
         <v>1214</v>
       </c>
       <c r="D66" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E66" s="176"/>
       <c r="F66" s="176"/>
@@ -17512,7 +17379,7 @@
         <v>80</v>
       </c>
       <c r="D67" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E67" s="158"/>
       <c r="F67" s="158"/>
@@ -17561,7 +17428,7 @@
         <v>81</v>
       </c>
       <c r="D68" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E68" s="158"/>
       <c r="F68" s="158"/>
@@ -17615,7 +17482,7 @@
         <v>82</v>
       </c>
       <c r="D69" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E69" s="158"/>
       <c r="F69" s="158"/>
@@ -17669,7 +17536,7 @@
         <v>83</v>
       </c>
       <c r="D70" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E70" s="158"/>
       <c r="F70" s="158"/>
@@ -17718,7 +17585,7 @@
         <v>86</v>
       </c>
       <c r="D71" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E71" s="158"/>
       <c r="F71" s="158"/>
@@ -17767,7 +17634,7 @@
         <v>84</v>
       </c>
       <c r="D72" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E72" s="158"/>
       <c r="F72" s="158"/>
@@ -17816,7 +17683,7 @@
         <v>85</v>
       </c>
       <c r="D73" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E73" s="176"/>
       <c r="F73" s="176"/>
@@ -17866,7 +17733,7 @@
         <v>101</v>
       </c>
       <c r="D74" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E74" s="158"/>
       <c r="F74" s="158"/>
@@ -17915,7 +17782,7 @@
         <v>102</v>
       </c>
       <c r="D75" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E75" s="158"/>
       <c r="F75" s="158"/>
@@ -17969,7 +17836,7 @@
         <v>103</v>
       </c>
       <c r="D76" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E76" s="158"/>
       <c r="F76" s="158"/>
@@ -18023,7 +17890,7 @@
         <v>104</v>
       </c>
       <c r="D77" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E77" s="158"/>
       <c r="F77" s="158"/>
@@ -18072,7 +17939,7 @@
         <v>105</v>
       </c>
       <c r="D78" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E78" s="158"/>
       <c r="F78" s="158"/>
@@ -18121,7 +17988,7 @@
         <v>106</v>
       </c>
       <c r="D79" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E79" s="158"/>
       <c r="F79" s="158"/>
@@ -18170,7 +18037,7 @@
         <v>107</v>
       </c>
       <c r="D80" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E80" s="176"/>
       <c r="F80" s="176"/>
@@ -18490,7 +18357,7 @@
         <v>115</v>
       </c>
       <c r="D87" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E87" s="176"/>
       <c r="F87" s="176"/>
@@ -18538,7 +18405,7 @@
         <v>116</v>
       </c>
       <c r="D88" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E88" s="176"/>
       <c r="F88" s="176"/>
@@ -18586,7 +18453,7 @@
         <v>117</v>
       </c>
       <c r="D89" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E89" s="176"/>
       <c r="F89" s="176"/>
@@ -18634,7 +18501,7 @@
         <v>118</v>
       </c>
       <c r="D90" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E90" s="176"/>
       <c r="F90" s="176"/>
@@ -18682,7 +18549,7 @@
         <v>119</v>
       </c>
       <c r="D91" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E91" s="176"/>
       <c r="F91" s="176"/>
@@ -18730,7 +18597,7 @@
         <v>120</v>
       </c>
       <c r="D92" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E92" s="176"/>
       <c r="F92" s="176"/>
@@ -18778,7 +18645,7 @@
         <v>121</v>
       </c>
       <c r="D93" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E93" s="176"/>
       <c r="F93" s="176"/>
@@ -18828,7 +18695,7 @@
         <v>122</v>
       </c>
       <c r="D94" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E94" s="158"/>
       <c r="F94" s="158"/>
@@ -18877,7 +18744,7 @@
         <v>123</v>
       </c>
       <c r="D95" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E95" s="158"/>
       <c r="F95" s="158"/>
@@ -18931,7 +18798,7 @@
         <v>124</v>
       </c>
       <c r="D96" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E96" s="158"/>
       <c r="F96" s="158"/>
@@ -18985,7 +18852,7 @@
         <v>125</v>
       </c>
       <c r="D97" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E97" s="158"/>
       <c r="F97" s="158"/>
@@ -19034,7 +18901,7 @@
         <v>126</v>
       </c>
       <c r="D98" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E98" s="158"/>
       <c r="F98" s="158"/>
@@ -19083,7 +18950,7 @@
         <v>127</v>
       </c>
       <c r="D99" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E99" s="158"/>
       <c r="F99" s="158"/>
@@ -19132,7 +18999,7 @@
         <v>128</v>
       </c>
       <c r="D100" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E100" s="176"/>
       <c r="F100" s="176"/>
@@ -19180,7 +19047,7 @@
         <v>130</v>
       </c>
       <c r="D101" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E101" s="176"/>
       <c r="F101" s="176"/>
@@ -19228,7 +19095,7 @@
         <v>131</v>
       </c>
       <c r="D102" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E102" s="176"/>
       <c r="F102" s="176"/>
@@ -19276,7 +19143,7 @@
         <v>132</v>
       </c>
       <c r="D103" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E103" s="176"/>
       <c r="F103" s="176"/>
@@ -19324,7 +19191,7 @@
         <v>133</v>
       </c>
       <c r="D104" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E104" s="176"/>
       <c r="F104" s="176"/>
@@ -19377,7 +19244,7 @@
         <v>134</v>
       </c>
       <c r="D105" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E105" s="176"/>
       <c r="F105" s="176"/>
@@ -19425,7 +19292,7 @@
         <v>135</v>
       </c>
       <c r="D106" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E106" s="176"/>
       <c r="F106" s="176"/>
@@ -19473,7 +19340,7 @@
         <v>136</v>
       </c>
       <c r="D107" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E107" s="176"/>
       <c r="F107" s="176"/>
@@ -19871,7 +19738,7 @@
         <v>154</v>
       </c>
       <c r="D116" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E116" s="158"/>
       <c r="F116" s="158"/>
@@ -19925,7 +19792,7 @@
         <v>155</v>
       </c>
       <c r="D117" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E117" s="158"/>
       <c r="F117" s="158"/>
@@ -19981,7 +19848,7 @@
         <v>156</v>
       </c>
       <c r="D118" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E118" s="158"/>
       <c r="F118" s="158"/>
@@ -20035,7 +19902,7 @@
         <v>157</v>
       </c>
       <c r="D119" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E119" s="146"/>
       <c r="F119" s="146"/>
@@ -20083,7 +19950,7 @@
         <v>158</v>
       </c>
       <c r="D120" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E120" s="158"/>
       <c r="F120" s="158"/>
@@ -20137,7 +20004,7 @@
         <v>159</v>
       </c>
       <c r="D121" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E121" s="158"/>
       <c r="F121" s="158"/>
@@ -20191,7 +20058,7 @@
         <v>160</v>
       </c>
       <c r="D122" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E122" s="158"/>
       <c r="F122" s="158"/>
@@ -20245,7 +20112,7 @@
         <v>161</v>
       </c>
       <c r="D123" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E123" s="146"/>
       <c r="F123" s="146"/>
@@ -20293,7 +20160,7 @@
         <v>162</v>
       </c>
       <c r="D124" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E124" s="158"/>
       <c r="F124" s="158"/>
@@ -20390,7 +20257,7 @@
         <v>164</v>
       </c>
       <c r="D126" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E126" s="158"/>
       <c r="F126" s="158"/>
@@ -20446,7 +20313,7 @@
         <v>165</v>
       </c>
       <c r="D127" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E127" s="158"/>
       <c r="F127" s="158"/>
@@ -20500,7 +20367,7 @@
         <v>166</v>
       </c>
       <c r="D128" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E128" s="158"/>
       <c r="F128" s="158"/>
@@ -20554,7 +20421,7 @@
         <v>167</v>
       </c>
       <c r="D129" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E129" s="158"/>
       <c r="F129" s="158"/>
@@ -20610,7 +20477,7 @@
         <v>168</v>
       </c>
       <c r="D130" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E130" s="146"/>
       <c r="F130" s="146"/>
@@ -20658,7 +20525,7 @@
         <v>169</v>
       </c>
       <c r="D131" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E131" s="158"/>
       <c r="F131" s="158"/>
@@ -20757,7 +20624,7 @@
         <v>171</v>
       </c>
       <c r="D133" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E133" s="158"/>
       <c r="F133" s="158"/>
@@ -20811,7 +20678,7 @@
         <v>172</v>
       </c>
       <c r="D134" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E134" s="158"/>
       <c r="F134" s="158"/>
@@ -20865,7 +20732,7 @@
         <v>173</v>
       </c>
       <c r="D135" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E135" s="146"/>
       <c r="F135" s="146"/>
@@ -20913,7 +20780,7 @@
         <v>174</v>
       </c>
       <c r="D136" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E136" s="146"/>
       <c r="F136" s="146"/>
@@ -20961,7 +20828,7 @@
         <v>175</v>
       </c>
       <c r="D137" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E137" s="146"/>
       <c r="F137" s="146"/>
@@ -21009,7 +20876,7 @@
         <v>176</v>
       </c>
       <c r="D138" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E138" s="158"/>
       <c r="F138" s="158"/>
@@ -21065,7 +20932,7 @@
         <v>177</v>
       </c>
       <c r="D139" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E139" s="158"/>
       <c r="F139" s="158"/>
@@ -21119,7 +20986,7 @@
         <v>178</v>
       </c>
       <c r="D140" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E140" s="158"/>
       <c r="F140" s="158"/>
@@ -21211,7 +21078,7 @@
         <v>171</v>
       </c>
       <c r="D142" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E142" s="158"/>
       <c r="F142" s="158"/>
@@ -21265,7 +21132,7 @@
         <v>172</v>
       </c>
       <c r="D143" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E143" s="158"/>
       <c r="F143" s="158"/>
@@ -21319,7 +21186,7 @@
         <v>180</v>
       </c>
       <c r="D144" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E144" s="146"/>
       <c r="F144" s="146"/>
@@ -21367,7 +21234,7 @@
         <v>181</v>
       </c>
       <c r="D145" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E145" s="146"/>
       <c r="F145" s="146"/>
@@ -21415,7 +21282,7 @@
         <v>182</v>
       </c>
       <c r="D146" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E146" s="146"/>
       <c r="F146" s="146"/>
@@ -21506,7 +21373,7 @@
         <v>183</v>
       </c>
       <c r="D148" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E148" s="158"/>
       <c r="F148" s="158"/>
@@ -21565,7 +21432,7 @@
         <v>184</v>
       </c>
       <c r="D149" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E149" s="158"/>
       <c r="F149" s="158"/>
@@ -21619,7 +21486,7 @@
         <v>185</v>
       </c>
       <c r="D150" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E150" s="158"/>
       <c r="F150" s="158"/>
@@ -21673,7 +21540,7 @@
         <v>186</v>
       </c>
       <c r="D151" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E151" s="158"/>
       <c r="F151" s="158"/>
@@ -21727,7 +21594,7 @@
         <v>188</v>
       </c>
       <c r="D152" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E152" s="146"/>
       <c r="F152" s="146"/>
@@ -22859,7 +22726,7 @@
         <v>261</v>
       </c>
       <c r="D177" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E177" s="158"/>
       <c r="F177" s="158"/>
@@ -22908,7 +22775,7 @@
         <v>1112</v>
       </c>
       <c r="D178" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E178" s="158"/>
       <c r="F178" s="158"/>
@@ -23002,7 +22869,7 @@
         <v>263</v>
       </c>
       <c r="D180" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E180" s="158"/>
       <c r="F180" s="158"/>
@@ -23056,7 +22923,7 @@
         <v>264</v>
       </c>
       <c r="D181" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E181" s="158"/>
       <c r="F181" s="158"/>
@@ -23110,7 +22977,7 @@
         <v>265</v>
       </c>
       <c r="D182" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E182" s="158"/>
       <c r="F182" s="158"/>
@@ -23164,7 +23031,7 @@
         <v>266</v>
       </c>
       <c r="D183" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E183" s="158"/>
       <c r="F183" s="158"/>
@@ -23218,7 +23085,7 @@
         <v>267</v>
       </c>
       <c r="D184" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E184" s="158"/>
       <c r="F184" s="158"/>
@@ -23272,7 +23139,7 @@
         <v>268</v>
       </c>
       <c r="D185" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E185" s="158"/>
       <c r="F185" s="158"/>
@@ -23326,7 +23193,7 @@
         <v>269</v>
       </c>
       <c r="D186" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E186" s="158"/>
       <c r="F186" s="158"/>
@@ -23380,7 +23247,7 @@
         <v>270</v>
       </c>
       <c r="D187" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E187" s="146"/>
       <c r="F187" s="146"/>
@@ -23471,7 +23338,7 @@
         <v>272</v>
       </c>
       <c r="D189" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E189" s="158"/>
       <c r="F189" s="158"/>
@@ -23525,7 +23392,7 @@
         <v>1093</v>
       </c>
       <c r="D190" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E190" s="158"/>
       <c r="F190" s="158"/>
@@ -23579,7 +23446,7 @@
         <v>273</v>
       </c>
       <c r="D191" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E191" s="158"/>
       <c r="F191" s="158"/>
@@ -23628,7 +23495,7 @@
         <v>274</v>
       </c>
       <c r="D192" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E192" s="158"/>
       <c r="F192" s="158"/>
@@ -23682,7 +23549,7 @@
         <v>275</v>
       </c>
       <c r="D193" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E193" s="158"/>
       <c r="F193" s="158"/>
@@ -23736,7 +23603,7 @@
         <v>276</v>
       </c>
       <c r="D194" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E194" s="158"/>
       <c r="F194" s="158"/>
@@ -23790,7 +23657,7 @@
         <v>1094</v>
       </c>
       <c r="D195" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E195" s="158"/>
       <c r="F195" s="158"/>
@@ -23844,7 +23711,7 @@
         <v>277</v>
       </c>
       <c r="D196" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E196" s="158"/>
       <c r="F196" s="158"/>
@@ -23898,7 +23765,7 @@
         <v>278</v>
       </c>
       <c r="D197" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E197" s="146"/>
       <c r="F197" s="146"/>
@@ -23946,7 +23813,7 @@
         <v>279</v>
       </c>
       <c r="D198" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E198" s="146"/>
       <c r="F198" s="146"/>
@@ -23994,7 +23861,7 @@
         <v>280</v>
       </c>
       <c r="D199" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E199" s="158"/>
       <c r="F199" s="158"/>
@@ -24043,7 +23910,7 @@
         <v>281</v>
       </c>
       <c r="D200" s="265" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E200" s="146"/>
       <c r="F200" s="146"/>
@@ -44715,7 +44582,7 @@
       <c r="F618" s="50"/>
       <c r="G618" s="49"/>
       <c r="H618" s="42" t="s">
-        <v>2356</v>
+        <v>2361</v>
       </c>
       <c r="I618" s="37"/>
       <c r="J618" s="37"/>
@@ -44762,7 +44629,7 @@
       <c r="F619" s="50"/>
       <c r="G619" s="49"/>
       <c r="H619" s="42" t="s">
-        <v>2353</v>
+        <v>2364</v>
       </c>
       <c r="I619" s="37"/>
       <c r="J619" s="37"/>
@@ -44809,7 +44676,7 @@
       <c r="F620" s="50"/>
       <c r="G620" s="49"/>
       <c r="H620" s="42" t="s">
-        <v>2357</v>
+        <v>2362</v>
       </c>
       <c r="I620" s="37"/>
       <c r="J620" s="37"/>
@@ -44855,8 +44722,8 @@
       <c r="E621" s="49"/>
       <c r="F621" s="50"/>
       <c r="G621" s="49"/>
-      <c r="H621" s="42" t="s">
-        <v>2354</v>
+      <c r="H621" s="37" t="s">
+        <v>2363</v>
       </c>
       <c r="I621" s="37"/>
       <c r="J621" s="37"/>
@@ -45285,7 +45152,7 @@
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B7" s="110"/>
       <c r="C7" s="114"/>
@@ -45304,7 +45171,7 @@
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B9" s="110"/>
       <c r="C9" s="114"/>
@@ -45426,7 +45293,7 @@
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="264" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B18" s="234">
         <f>Data!I23</f>
@@ -45437,7 +45304,7 @@
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B19" s="110"/>
       <c r="C19" s="114"/>
@@ -45454,7 +45321,7 @@
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B21" s="110"/>
       <c r="C21" s="114"/>
@@ -45477,7 +45344,7 @@
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="114"/>
@@ -45494,7 +45361,7 @@
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="264" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B25" s="110"/>
       <c r="C25" s="114"/>
@@ -45532,7 +45399,7 @@
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="264" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B28" s="110"/>
       <c r="C28" s="114"/>
@@ -46126,7 +45993,7 @@
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="266" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B5" s="120"/>
       <c r="C5" s="122"/>
@@ -46164,7 +46031,7 @@
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B8" s="106"/>
       <c r="C8" s="122"/>
@@ -46183,7 +46050,7 @@
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="267" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B10" s="106"/>
       <c r="C10" s="122"/>
@@ -46236,7 +46103,7 @@
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B14" s="106"/>
       <c r="C14" s="122"/>
@@ -46255,7 +46122,7 @@
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="267" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B16" s="106"/>
       <c r="C16" s="122"/>
@@ -46278,7 +46145,7 @@
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B18" s="106"/>
       <c r="C18" s="122"/>
@@ -46354,7 +46221,7 @@
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B24" s="106"/>
       <c r="C24" s="122"/>
@@ -46373,7 +46240,7 @@
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="267" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B26" s="106"/>
       <c r="C26" s="122"/>
@@ -46396,7 +46263,7 @@
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="266" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B28" s="106"/>
       <c r="C28" s="122"/>
@@ -46442,7 +46309,7 @@
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="266" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B32" s="106"/>
       <c r="C32" s="122"/>
@@ -46461,7 +46328,7 @@
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B34" s="106"/>
       <c r="C34" s="122"/>
@@ -46480,7 +46347,7 @@
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B36" s="106"/>
       <c r="C36" s="122"/>
@@ -46499,7 +46366,7 @@
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="267" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B38" s="106"/>
       <c r="C38" s="122"/>
@@ -46552,7 +46419,7 @@
     </row>
     <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="266" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B42" s="106"/>
       <c r="C42" s="122"/>
@@ -46598,7 +46465,7 @@
     </row>
     <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="266" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B46" s="106"/>
       <c r="C46" s="122"/>
@@ -46617,7 +46484,7 @@
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="264" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B48" s="106"/>
       <c r="C48" s="122"/>
@@ -46636,7 +46503,7 @@
     </row>
     <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B50" s="106"/>
       <c r="C50" s="122"/>
@@ -46655,7 +46522,7 @@
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="267" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B52" s="106"/>
       <c r="C52" s="122"/>
@@ -46731,7 +46598,7 @@
     </row>
     <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B58" s="106"/>
       <c r="C58" s="122"/>
@@ -46838,7 +46705,7 @@
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B4" s="106"/>
       <c r="C4" s="100"/>
@@ -46860,7 +46727,7 @@
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B6" s="106"/>
       <c r="C6" s="100"/>
@@ -46974,7 +46841,7 @@
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B15" s="106"/>
       <c r="C15" s="100" t="s">
@@ -46995,7 +46862,7 @@
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B17" s="106"/>
       <c r="C17" s="100"/>
@@ -47123,7 +46990,7 @@
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B27" s="106"/>
       <c r="C27" s="100"/>
@@ -47142,7 +47009,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B29" s="106"/>
       <c r="C29" s="100"/>
@@ -47161,7 +47028,7 @@
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="229" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B31" s="106"/>
       <c r="C31" s="100"/>

--- a/specifications/afs/Business intelligence systems - System Development - BI Project - Finance Systems - AFS Data Specification V4.35.xlsx
+++ b/specifications/afs/Business intelligence systems - System Development - BI Project - Finance Systems - AFS Data Specification V4.35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ShrForms\specifications\afs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59BB02F-3892-43EE-9CF7-80C5DA76EA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FCA17D-8CE0-4AE5-B1B6-604C4FBE6DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14105,11 +14105,11 @@
   <dimension ref="A1:AG627"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B619" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B605" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B6" sqref="B6"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H619" sqref="H619"/>
+      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -19910,9 +19910,9 @@
         <v>225</v>
       </c>
       <c r="H119" s="38"/>
-      <c r="I119" s="269">
-        <f>SUM(H117,H118)</f>
-        <v>162807</v>
+      <c r="I119" s="269" t="str">
+        <f>A608</f>
+        <v>AFSF002</v>
       </c>
       <c r="J119" s="37"/>
       <c r="K119" s="146"/>
@@ -20122,7 +20122,7 @@
       <c r="H123" s="38"/>
       <c r="I123" s="214">
         <f>SUM(H116,I119,H120,H121,H122)</f>
-        <v>168822</v>
+        <v>6015</v>
       </c>
       <c r="J123" s="37"/>
       <c r="K123" s="146"/>
@@ -20838,7 +20838,7 @@
       <c r="H137" s="38"/>
       <c r="I137" s="214">
         <f>SUM(I123,H124,I136)</f>
-        <v>168931</v>
+        <v>6124</v>
       </c>
       <c r="J137" s="37"/>
       <c r="K137" s="146"/>
@@ -21292,7 +21292,7 @@
       <c r="H146" s="38"/>
       <c r="I146" s="214">
         <f>SUM(I137,I145)</f>
-        <v>44418</v>
+        <v>-118389</v>
       </c>
       <c r="J146" s="37"/>
       <c r="K146" s="146"/>
@@ -21612,7 +21612,7 @@
       <c r="M152" s="146"/>
       <c r="N152" s="37" t="b">
         <f>I152=I146</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O152" s="146" t="s">
         <v>249</v>
@@ -45057,8 +45057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -45442,8 +45442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -45941,7 +45941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFB64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -46041,9 +46041,9 @@
       <c r="A9" s="231" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="232">
+      <c r="B9" s="232" t="str">
         <f>Data!I119</f>
-        <v>162807</v>
+        <v>AFSF002</v>
       </c>
       <c r="C9" s="121"/>
       <c r="D9" s="100"/>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="B15" s="232">
         <f>Data!I123</f>
-        <v>168822</v>
+        <v>6015</v>
       </c>
       <c r="C15" s="121"/>
       <c r="D15" s="100"/>
@@ -46359,7 +46359,7 @@
       </c>
       <c r="B37" s="232">
         <f>Data!I137</f>
-        <v>168931</v>
+        <v>6124</v>
       </c>
       <c r="C37" s="121"/>
       <c r="D37" s="100"/>
@@ -46515,7 +46515,7 @@
       </c>
       <c r="B51" s="232">
         <f>Data!I146</f>
-        <v>44418</v>
+        <v>-118389</v>
       </c>
       <c r="C51" s="121"/>
       <c r="D51" s="100"/>
@@ -46658,7 +46658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:XFB33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
